--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS9.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS9.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="138">
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
   <si>
     <t>Signal_Value_10</t>
   </si>
@@ -330,6 +333,30 @@
     <t>Signal_Value_112</t>
   </si>
   <si>
+    <t>Signal_Value_113</t>
+  </si>
+  <si>
+    <t>Signal_Value_114</t>
+  </si>
+  <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -402,10 +429,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -766,15 +790,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CZ6"/>
+  <dimension ref="A1:DI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:104">
+    <row r="1" spans="1:113">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1085,10 +1109,37 @@
       <c r="CZ1" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:104">
+    <row r="2" spans="1:113">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1097,100 +1148,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08574849780791581</v>
+        <v>0.05856681844401546</v>
       </c>
       <c r="E2">
-        <v>0.07957357673938634</v>
+        <v>0.002925126698273228</v>
       </c>
       <c r="F2">
-        <v>0.06095060585482637</v>
+        <v>0.08676451754493099</v>
       </c>
       <c r="G2">
-        <v>0.03598129386695174</v>
+        <v>0.03646822654605432</v>
       </c>
       <c r="H2">
-        <v>0.01664431993533174</v>
+        <v>0.004821537160689667</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01893022132456663</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07736570831714294</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.006877883210078738</v>
       </c>
       <c r="L2">
-        <v>0.009079377207643659</v>
+        <v>0.0674291967409613</v>
       </c>
       <c r="M2">
-        <v>0.02163425841859898</v>
+        <v>0.0009632266302736404</v>
       </c>
       <c r="N2">
-        <v>0.02959451107755233</v>
+        <v>0.03358591501063157</v>
       </c>
       <c r="O2">
-        <v>0.03670537438914917</v>
+        <v>0.0008137856416247948</v>
       </c>
       <c r="P2">
-        <v>0.03896140135521518</v>
+        <v>0.02077895581405384</v>
       </c>
       <c r="Q2">
-        <v>0.03123046925500093</v>
+        <v>0.01139641755238007</v>
       </c>
       <c r="R2">
-        <v>0.01173697940895629</v>
+        <v>0.006471458498389809</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.09385219957227051</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.02087864957989415</v>
+        <v>0.08218073544450387</v>
       </c>
       <c r="V2">
-        <v>0.06429640722087267</v>
+        <v>0.008958167668053088</v>
       </c>
       <c r="W2">
-        <v>0.105434813228838</v>
+        <v>0.06546941187471748</v>
       </c>
       <c r="X2">
-        <v>0.120292488797629</v>
+        <v>0.1219957621111647</v>
       </c>
       <c r="Y2">
-        <v>0.1071416898701298</v>
+        <v>0.005099135290322245</v>
       </c>
       <c r="Z2">
-        <v>0.07433278174451859</v>
+        <v>0.007536811646138138</v>
       </c>
       <c r="AA2">
-        <v>0.03977857325753698</v>
+        <v>0.0164410718278406</v>
       </c>
       <c r="AB2">
-        <v>0.01000393098405254</v>
+        <v>0.0466197884681086</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.0118396845675062</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.0006030660617866917</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.003222204335406466</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.0527993028982405</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.02378240960304756</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>4.249870702193351E-05</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.0253987547898047</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1399,10 +1450,37 @@
       <c r="CZ2">
         <v>0</v>
       </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:104">
+    <row r="3" spans="1:113">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1597,126 +1675,153 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.001403326324834392</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.001240206541407388</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0007846330454701423</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0003091660288913808</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>2.2735892706038E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
         <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0001737534249203495</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>3.768744878115198E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.04564562954952394</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.02510130946909193</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.02266615482284661</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.03305274934033483</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.04614881323376104</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.004088265550305762</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0009768724857979318</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.008577696281609478</v>
+        <v>0.05643471421893644</v>
       </c>
       <c r="CE3">
-        <v>0.1171143300589265</v>
+        <v>0.006132186468111303</v>
       </c>
       <c r="CF3">
-        <v>0.05320773261514621</v>
+        <v>0.09890880453034559</v>
       </c>
       <c r="CG3">
-        <v>0.01345284900400253</v>
+        <v>0.02364122889922351</v>
       </c>
       <c r="CH3">
-        <v>0.04936845539735735</v>
+        <v>0.0195605347990087</v>
       </c>
       <c r="CI3">
-        <v>0.03476253726763823</v>
+        <v>0.01399029264197115</v>
       </c>
       <c r="CJ3">
-        <v>0.02720058435007543</v>
+        <v>0.1474708670314962</v>
       </c>
       <c r="CK3">
-        <v>0.04518286745536881</v>
+        <v>0.0209798662075471</v>
       </c>
       <c r="CL3">
-        <v>0.02339534742984186</v>
+        <v>0.02613905258507338</v>
       </c>
       <c r="CM3">
-        <v>3.487063942375085E-05</v>
+        <v>0.01066647807012333</v>
       </c>
       <c r="CN3">
-        <v>0.0612319798579097</v>
+        <v>0.003741380436095479</v>
       </c>
       <c r="CO3">
-        <v>0.1077794663923743</v>
+        <v>0.0007357335654539077</v>
       </c>
       <c r="CP3">
-        <v>0.1265213225432691</v>
+        <v>0.02741328708855797</v>
       </c>
       <c r="CQ3">
-        <v>0.087190636074703</v>
+        <v>0.04148039419961478</v>
       </c>
       <c r="CR3">
-        <v>0.05596136717653308</v>
+        <v>0.007802066767970391</v>
       </c>
       <c r="CS3">
-        <v>0.007366654297147577</v>
+        <v>0.05431328388810801</v>
       </c>
       <c r="CT3">
-        <v>0</v>
+        <v>0.0006563880772870688</v>
       </c>
       <c r="CU3">
-        <v>0</v>
+        <v>0.04448547410209234</v>
       </c>
       <c r="CV3">
-        <v>0</v>
+        <v>0.01545795494010004</v>
       </c>
       <c r="CW3">
-        <v>0</v>
+        <v>0.07268054301009259</v>
       </c>
       <c r="CX3">
-        <v>0</v>
+        <v>0.1048070493134668</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>0.01795136209606002</v>
       </c>
       <c r="CZ3">
-        <v>0</v>
+        <v>0.009088685699981008</v>
+      </c>
+      <c r="DA3">
+        <v>0.00822628681782391</v>
+      </c>
+      <c r="DB3">
+        <v>0.03608181375722223</v>
+      </c>
+      <c r="DC3">
+        <v>0.01490800045373269</v>
+      </c>
+      <c r="DD3">
+        <v>0.001518493708036444</v>
+      </c>
+      <c r="DE3">
+        <v>0.004533249961121138</v>
+      </c>
+      <c r="DF3">
+        <v>0.08085874799741062</v>
+      </c>
+      <c r="DG3">
+        <v>0.009034753075364105</v>
+      </c>
+      <c r="DH3">
+        <v>0.0003738097506661148</v>
+      </c>
+      <c r="DI3">
+        <v>0.0199272158419056</v>
       </c>
     </row>
-    <row r="4" spans="1:104">
+    <row r="4" spans="1:113">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1920,117 +2025,144 @@
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>0.05045158267191309</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.0004715765139200863</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.08512751819099998</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.03436248953357635</v>
       </c>
       <c r="BU4">
-        <v>0.001193009902856702</v>
+        <v>0.006683284528870842</v>
       </c>
       <c r="BV4">
-        <v>0.02513963250335411</v>
+        <v>0.007985295075260386</v>
       </c>
       <c r="BW4">
-        <v>0.02244870193936422</v>
+        <v>0.08277939361470714</v>
       </c>
       <c r="BX4">
-        <v>0.03761422333815058</v>
+        <v>0.0001675947609639304</v>
       </c>
       <c r="BY4">
-        <v>0.008924816258725956</v>
+        <v>0.06090073029529297</v>
       </c>
       <c r="BZ4">
-        <v>0.05682994942541215</v>
+        <v>0.01948044887057213</v>
       </c>
       <c r="CA4">
-        <v>0.003220170701613029</v>
+        <v>0.04358070370899974</v>
       </c>
       <c r="CB4">
-        <v>0.009618016816525476</v>
+        <v>0.001823119094040127</v>
       </c>
       <c r="CC4">
-        <v>0.009629120380763303</v>
+        <v>0.001976126934191687</v>
       </c>
       <c r="CD4">
-        <v>0.009175530390926378</v>
+        <v>0.03436248953357635</v>
       </c>
       <c r="CE4">
-        <v>0.07935968097775373</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.02339959849018947</v>
+        <v>0.1454475236194951</v>
       </c>
       <c r="CG4">
-        <v>0.0237770106543553</v>
+        <v>0.01403837554531071</v>
       </c>
       <c r="CH4">
-        <v>0.04711491750713191</v>
+        <v>0.09234206396446594</v>
       </c>
       <c r="CI4">
-        <v>0.04461893665651324</v>
+        <v>0.03424659875275129</v>
       </c>
       <c r="CJ4">
-        <v>0.01685072497428353</v>
+        <v>0.03567630182961301</v>
       </c>
       <c r="CK4">
-        <v>0.02455691581789631</v>
+        <v>0.07261227501559089</v>
       </c>
       <c r="CL4">
-        <v>0.006466896284271149</v>
+        <v>0.01692247530318875</v>
       </c>
       <c r="CM4">
-        <v>0.0124621510108937</v>
+        <v>0.0006627759919295517</v>
       </c>
       <c r="CN4">
-        <v>0.07476862908985916</v>
+        <v>0.0002313842268005533</v>
       </c>
       <c r="CO4">
-        <v>0.08177929785587749</v>
+        <v>0.01593411269331391</v>
       </c>
       <c r="CP4">
-        <v>0.0949678732813543</v>
+        <v>0.03992007591930725</v>
       </c>
       <c r="CQ4">
-        <v>0.06215421551708594</v>
+        <v>0.02098062495424472</v>
       </c>
       <c r="CR4">
-        <v>0.02488224751935541</v>
+        <v>0.004655651868799444</v>
       </c>
       <c r="CS4">
-        <v>6.251991636180886E-06</v>
+        <v>0.03127532257201645</v>
       </c>
       <c r="CT4">
-        <v>0.02778977961148707</v>
+        <v>0.03198691553846798</v>
       </c>
       <c r="CU4">
-        <v>0.04918820957447203</v>
+        <v>0.01130055250732743</v>
       </c>
       <c r="CV4">
-        <v>0.03647907374166328</v>
+        <v>0.001614616370492059</v>
       </c>
       <c r="CW4">
-        <v>0.02192417229130945</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01076449406217289</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.02465454597064434</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.02824120546210239</v>
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:104">
+    <row r="5" spans="1:113">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2171,97 +2303,97 @@
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.04150886509826633</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.05955881423183459</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.07058812827511401</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.06804529317895644</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.05612043117953409</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0379100161042201</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.01922651828259312</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.005169588393111615</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.002247334208516099</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.009588709849944315</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.02210886025717515</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.03918807513588467</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.05815408024002698</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.07638106413428826</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.08235764528691963</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.07510778109577676</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.05582238039438169</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.03154386596324444</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.01204469300133174</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.000150375692513844</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.002913310916540087</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.01281598522610091</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01989472401251876</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.02064693364887973</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.02177073828733438</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.02295426338029307</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.02371337898907944</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.02289282768752693</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01735545163730521</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01221986621078753</v>
+        <v>0</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -2273,78 +2405,105 @@
         <v>0</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>0.01774308864387086</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>0.01870146380360414</v>
       </c>
       <c r="CF5">
-        <v>0</v>
+        <v>0.08020791156976985</v>
       </c>
       <c r="CG5">
-        <v>0</v>
+        <v>0.07210615359645804</v>
       </c>
       <c r="CH5">
-        <v>0</v>
+        <v>0.002112831888481953</v>
       </c>
       <c r="CI5">
-        <v>0</v>
+        <v>2.577927819378899E-06</v>
       </c>
       <c r="CJ5">
-        <v>0</v>
+        <v>0.08699668169983288</v>
       </c>
       <c r="CK5">
-        <v>0</v>
+        <v>0.003345603264526576</v>
       </c>
       <c r="CL5">
-        <v>0</v>
+        <v>0.00705089911349776</v>
       </c>
       <c r="CM5">
-        <v>0</v>
+        <v>0.06654585685724587</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>0.04673153232734405</v>
       </c>
       <c r="CO5">
-        <v>0</v>
+        <v>0.006361036647661185</v>
       </c>
       <c r="CP5">
-        <v>0</v>
+        <v>0.007474574969515554</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>0.0254228428207742</v>
       </c>
       <c r="CR5">
-        <v>0</v>
+        <v>0.009254617988228185</v>
       </c>
       <c r="CS5">
-        <v>0</v>
+        <v>0.06447193640310651</v>
       </c>
       <c r="CT5">
-        <v>0</v>
+        <v>0.05413788346475135</v>
       </c>
       <c r="CU5">
-        <v>0</v>
+        <v>0.1080352556322674</v>
       </c>
       <c r="CV5">
-        <v>0</v>
+        <v>0.0226166115160039</v>
       </c>
       <c r="CW5">
-        <v>0</v>
+        <v>0.009826416511969673</v>
       </c>
       <c r="CX5">
-        <v>0</v>
+        <v>0.1082375619340823</v>
       </c>
       <c r="CY5">
-        <v>0</v>
+        <v>0.02402006439373379</v>
       </c>
       <c r="CZ5">
         <v>0</v>
       </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0.008572217066719439</v>
+      </c>
+      <c r="DC5">
+        <v>0.0295666562949357</v>
+      </c>
+      <c r="DD5">
+        <v>0.030929495679147</v>
+      </c>
+      <c r="DE5">
+        <v>0.003968607433514867</v>
+      </c>
+      <c r="DF5">
+        <v>0.01870399203018871</v>
+      </c>
+      <c r="DG5">
+        <v>0.05611701469198902</v>
+      </c>
+      <c r="DH5">
+        <v>0.01011738205471961</v>
+      </c>
+      <c r="DI5">
+        <v>0.0006212317742403965</v>
+      </c>
     </row>
-    <row r="6" spans="1:104">
+    <row r="6" spans="1:113">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2551,109 +2710,136 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.003276999009559169</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.005227211942647362</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.009054608089450302</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0377753326319157</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.01715810755220689</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.04110274292887848</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.06693038935269516</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0001709584549829106</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.02306194466643803</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.009891756476071696</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.02196915305921184</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.03043572798961636</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>9.825974460981407E-05</v>
+        <v>0.02500617875852623</v>
       </c>
       <c r="CE6">
-        <v>0.03016151685537887</v>
+        <v>0.005572493808907881</v>
       </c>
       <c r="CF6">
-        <v>0.04346994761243578</v>
+        <v>0.02225303874154305</v>
       </c>
       <c r="CG6">
-        <v>0.04512027880345353</v>
+        <v>0.02321408309397681</v>
       </c>
       <c r="CH6">
-        <v>0.01910683954335278</v>
+        <v>0.03277767773850029</v>
       </c>
       <c r="CI6">
-        <v>0.02484928667461021</v>
+        <v>0.01583947867641992</v>
       </c>
       <c r="CJ6">
-        <v>0.000134040706604158</v>
+        <v>0.1652316620396953</v>
       </c>
       <c r="CK6">
-        <v>0.03802709276210779</v>
+        <v>0.0223404064990948</v>
       </c>
       <c r="CL6">
-        <v>0.08377377783480656</v>
+        <v>0.01777631810030121</v>
       </c>
       <c r="CM6">
-        <v>0.0819731945191208</v>
+        <v>0.01611868129008322</v>
       </c>
       <c r="CN6">
-        <v>0.11542566192783</v>
+        <v>0.02551240829406673</v>
       </c>
       <c r="CO6">
-        <v>0.05052005558250387</v>
+        <v>0.007364861501741737</v>
       </c>
       <c r="CP6">
-        <v>0.009966741597833775</v>
+        <v>0.03943488061321297</v>
       </c>
       <c r="CQ6">
-        <v>0.005892436282136967</v>
+        <v>0.0342022351446078</v>
       </c>
       <c r="CR6">
-        <v>0.04875682033400357</v>
+        <v>0.003083134147391897</v>
       </c>
       <c r="CS6">
-        <v>0.06578097516679192</v>
+        <v>0.0808551682979906</v>
       </c>
       <c r="CT6">
-        <v>0.02784887630752379</v>
+        <v>0.003401206994410054</v>
       </c>
       <c r="CU6">
-        <v>0.005253003593559733</v>
+        <v>0.08079787172768503</v>
       </c>
       <c r="CV6">
-        <v>0.007942737866283744</v>
+        <v>0.0279898171470149</v>
       </c>
       <c r="CW6">
-        <v>0.02984352413137867</v>
+        <v>0.04968157809374478</v>
       </c>
       <c r="CX6">
-        <v>0</v>
+        <v>0.1117982777821697</v>
       </c>
       <c r="CY6">
-        <v>0</v>
+        <v>0.02201321746845107</v>
       </c>
       <c r="CZ6">
-        <v>0</v>
+        <v>0.002357567048964407</v>
+      </c>
+      <c r="DA6">
+        <v>0.00442019101790255</v>
+      </c>
+      <c r="DB6">
+        <v>0.02270036150330633</v>
+      </c>
+      <c r="DC6">
+        <v>0.06259348789084426</v>
+      </c>
+      <c r="DD6">
+        <v>0.003956914493508559</v>
+      </c>
+      <c r="DE6">
+        <v>0.007059494552617314</v>
+      </c>
+      <c r="DF6">
+        <v>0.0542210947091101</v>
+      </c>
+      <c r="DG6">
+        <v>0.007296188775264461</v>
+      </c>
+      <c r="DH6">
+        <v>0.0003485365157630913</v>
+      </c>
+      <c r="DI6">
+        <v>0.002781487533182673</v>
       </c>
     </row>
   </sheetData>
@@ -2663,15 +2849,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CZ6"/>
+  <dimension ref="A1:DI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:104">
+    <row r="1" spans="1:113">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2982,10 +3168,37 @@
       <c r="CZ1" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:104">
+    <row r="2" spans="1:113">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2994,97 +3207,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08574849780791581</v>
+        <v>0.05856681844401546</v>
       </c>
       <c r="E2">
-        <v>0.1653220745473021</v>
+        <v>0.06149194514228869</v>
       </c>
       <c r="F2">
-        <v>0.2262726804021285</v>
+        <v>0.1482564626872197</v>
       </c>
       <c r="G2">
-        <v>0.2622539742690803</v>
+        <v>0.184724689233274</v>
       </c>
       <c r="H2">
-        <v>0.278898294204412</v>
+        <v>0.1895462263939637</v>
       </c>
       <c r="I2">
-        <v>0.278898294204412</v>
+        <v>0.2084764477185303</v>
       </c>
       <c r="J2">
-        <v>0.278898294204412</v>
+        <v>0.2858421560356733</v>
       </c>
       <c r="K2">
-        <v>0.278898294204412</v>
+        <v>0.292720039245752</v>
       </c>
       <c r="L2">
-        <v>0.2879776714120557</v>
+        <v>0.3601492359867133</v>
       </c>
       <c r="M2">
-        <v>0.3096119298306547</v>
+        <v>0.361112462616987</v>
       </c>
       <c r="N2">
-        <v>0.339206440908207</v>
+        <v>0.3946983776276186</v>
       </c>
       <c r="O2">
-        <v>0.3759118152973562</v>
+        <v>0.3955121632692434</v>
       </c>
       <c r="P2">
-        <v>0.4148732166525714</v>
+        <v>0.4162911190832972</v>
       </c>
       <c r="Q2">
-        <v>0.4461036859075723</v>
+        <v>0.4276875366356773</v>
       </c>
       <c r="R2">
-        <v>0.4578406653165286</v>
+        <v>0.4341589951340671</v>
       </c>
       <c r="S2">
-        <v>0.4578406653165286</v>
+        <v>0.5280111947063376</v>
       </c>
       <c r="T2">
-        <v>0.4578406653165286</v>
+        <v>0.5280111947063376</v>
       </c>
       <c r="U2">
-        <v>0.4787193148964228</v>
+        <v>0.6101919301508415</v>
       </c>
       <c r="V2">
-        <v>0.5430157221172954</v>
+        <v>0.6191500978188946</v>
       </c>
       <c r="W2">
-        <v>0.6484505353461334</v>
+        <v>0.6846195096936121</v>
       </c>
       <c r="X2">
-        <v>0.7687430241437624</v>
+        <v>0.8066152718047768</v>
       </c>
       <c r="Y2">
-        <v>0.8758847140138922</v>
+        <v>0.811714407095099</v>
       </c>
       <c r="Z2">
-        <v>0.9502174957584109</v>
+        <v>0.8192512187412372</v>
       </c>
       <c r="AA2">
-        <v>0.9899960690159478</v>
+        <v>0.8356922905690778</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.8823120790371863</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.8941517636046925</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.8947548296664792</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.8979770340018857</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9507763369001262</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9745587465031738</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9746012452101956</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -3296,10 +3509,37 @@
       <c r="CZ2">
         <v>1</v>
       </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:104">
+    <row r="3" spans="1:113">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3494,126 +3734,153 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.001403326324834392</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.00264353286624178</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.003428165911711922</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.003737331940603303</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.003760067833309341</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.003760067833309341</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.003933821258229691</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.003971508707010843</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.04961713825653478</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.07471844772562672</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.09738460254847332</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.1304373518888081</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.1765861651225692</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.1765861651225692</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.1806744306728749</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.1816513031586729</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.1902289994402823</v>
+        <v>0.05643471421893644</v>
       </c>
       <c r="CE3">
-        <v>0.3073433294992089</v>
+        <v>0.06256690068704773</v>
       </c>
       <c r="CF3">
-        <v>0.3605510621143551</v>
+        <v>0.1614757052173933</v>
       </c>
       <c r="CG3">
-        <v>0.3740039111183576</v>
+        <v>0.1851169341166168</v>
       </c>
       <c r="CH3">
-        <v>0.423372366515715</v>
+        <v>0.2046774689156255</v>
       </c>
       <c r="CI3">
-        <v>0.4581349037833532</v>
+        <v>0.2186677615575967</v>
       </c>
       <c r="CJ3">
-        <v>0.4853354881334286</v>
+        <v>0.366138628589093</v>
       </c>
       <c r="CK3">
-        <v>0.5305183555887975</v>
+        <v>0.3871184947966401</v>
       </c>
       <c r="CL3">
-        <v>0.5539137030186393</v>
+        <v>0.4132575473817134</v>
       </c>
       <c r="CM3">
-        <v>0.553948573658063</v>
+        <v>0.4239240254518368</v>
       </c>
       <c r="CN3">
-        <v>0.6151805535159728</v>
+        <v>0.4276654058879322</v>
       </c>
       <c r="CO3">
-        <v>0.7229600199083471</v>
+        <v>0.4284011394533861</v>
       </c>
       <c r="CP3">
-        <v>0.8494813424516163</v>
+        <v>0.4558144265419442</v>
       </c>
       <c r="CQ3">
-        <v>0.9366719785263193</v>
+        <v>0.497294820741559</v>
       </c>
       <c r="CR3">
-        <v>0.9926333457028524</v>
+        <v>0.5050968875095293</v>
       </c>
       <c r="CS3">
-        <v>1</v>
+        <v>0.5594101713976373</v>
       </c>
       <c r="CT3">
-        <v>1</v>
+        <v>0.5600665594749243</v>
       </c>
       <c r="CU3">
-        <v>1</v>
+        <v>0.6045520335770167</v>
       </c>
       <c r="CV3">
-        <v>1</v>
+        <v>0.6200099885171168</v>
       </c>
       <c r="CW3">
-        <v>1</v>
+        <v>0.6926905315272094</v>
       </c>
       <c r="CX3">
-        <v>1</v>
+        <v>0.7974975808406762</v>
       </c>
       <c r="CY3">
-        <v>1</v>
+        <v>0.8154489429367362</v>
       </c>
       <c r="CZ3">
+        <v>0.8245376286367172</v>
+      </c>
+      <c r="DA3">
+        <v>0.8327639154545411</v>
+      </c>
+      <c r="DB3">
+        <v>0.8688457292117633</v>
+      </c>
+      <c r="DC3">
+        <v>0.8837537296654959</v>
+      </c>
+      <c r="DD3">
+        <v>0.8852722233735324</v>
+      </c>
+      <c r="DE3">
+        <v>0.8898054733346535</v>
+      </c>
+      <c r="DF3">
+        <v>0.9706642213320642</v>
+      </c>
+      <c r="DG3">
+        <v>0.9796989744074283</v>
+      </c>
+      <c r="DH3">
+        <v>0.9800727841580944</v>
+      </c>
+      <c r="DI3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:104">
+    <row r="4" spans="1:113">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3817,117 +4084,144 @@
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>0.05045158267191309</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>0.05092315918583318</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>0.1360506773768332</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.1704131669104095</v>
       </c>
       <c r="BU4">
-        <v>0.001193009902856702</v>
+        <v>0.1770964514392804</v>
       </c>
       <c r="BV4">
-        <v>0.02633264240621081</v>
+        <v>0.1850817465145407</v>
       </c>
       <c r="BW4">
-        <v>0.04878134434557502</v>
+        <v>0.2678611401292479</v>
       </c>
       <c r="BX4">
-        <v>0.08639556768372561</v>
+        <v>0.2680287348902118</v>
       </c>
       <c r="BY4">
-        <v>0.09532038394245157</v>
+        <v>0.3289294651855048</v>
       </c>
       <c r="BZ4">
-        <v>0.1521503333678637</v>
+        <v>0.3484099140560769</v>
       </c>
       <c r="CA4">
-        <v>0.1553705040694768</v>
+        <v>0.3919906177650767</v>
       </c>
       <c r="CB4">
-        <v>0.1649885208860022</v>
+        <v>0.3938137368591168</v>
       </c>
       <c r="CC4">
-        <v>0.1746176412667655</v>
+        <v>0.3957898637933085</v>
       </c>
       <c r="CD4">
-        <v>0.1837931716576919</v>
+        <v>0.4301523533268848</v>
       </c>
       <c r="CE4">
-        <v>0.2631528526354456</v>
+        <v>0.4301523533268848</v>
       </c>
       <c r="CF4">
-        <v>0.2865524511256351</v>
+        <v>0.5755998769463799</v>
       </c>
       <c r="CG4">
-        <v>0.3103294617799904</v>
+        <v>0.5896382524916907</v>
       </c>
       <c r="CH4">
-        <v>0.3574443792871223</v>
+        <v>0.6819803164561566</v>
       </c>
       <c r="CI4">
-        <v>0.4020633159436355</v>
+        <v>0.7162269152089079</v>
       </c>
       <c r="CJ4">
-        <v>0.4189140409179191</v>
+        <v>0.7519032170385209</v>
       </c>
       <c r="CK4">
-        <v>0.4434709567358154</v>
+        <v>0.8245154920541118</v>
       </c>
       <c r="CL4">
-        <v>0.4499378530200865</v>
+        <v>0.8414379673573006</v>
       </c>
       <c r="CM4">
-        <v>0.4624000040309802</v>
+        <v>0.8421007433492301</v>
       </c>
       <c r="CN4">
-        <v>0.5371686331208394</v>
+        <v>0.8423321275760307</v>
       </c>
       <c r="CO4">
-        <v>0.6189479309767169</v>
+        <v>0.8582662402693446</v>
       </c>
       <c r="CP4">
-        <v>0.7139158042580711</v>
+        <v>0.8981863161886519</v>
       </c>
       <c r="CQ4">
-        <v>0.776070019775157</v>
+        <v>0.9191669411428965</v>
       </c>
       <c r="CR4">
-        <v>0.8009522672945124</v>
+        <v>0.923822593011696</v>
       </c>
       <c r="CS4">
-        <v>0.8009585192861486</v>
+        <v>0.9550979155837125</v>
       </c>
       <c r="CT4">
-        <v>0.8287482988976357</v>
+        <v>0.9870848311221805</v>
       </c>
       <c r="CU4">
-        <v>0.8779365084721077</v>
+        <v>0.9983853836295079</v>
       </c>
       <c r="CV4">
-        <v>0.9144155822137709</v>
+        <v>1</v>
       </c>
       <c r="CW4">
-        <v>0.9363397545050804</v>
+        <v>1</v>
       </c>
       <c r="CX4">
-        <v>0.9471042485672533</v>
+        <v>1</v>
       </c>
       <c r="CY4">
-        <v>0.9717587945378976</v>
+        <v>1</v>
       </c>
       <c r="CZ4">
         <v>1</v>
       </c>
+      <c r="DA4">
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
+      <c r="DD4">
+        <v>1</v>
+      </c>
+      <c r="DE4">
+        <v>1</v>
+      </c>
+      <c r="DF4">
+        <v>1</v>
+      </c>
+      <c r="DG4">
+        <v>1</v>
+      </c>
+      <c r="DH4">
+        <v>1</v>
+      </c>
+      <c r="DI4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:104">
+    <row r="5" spans="1:113">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4068,180 +4362,207 @@
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.04150886509826633</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.1010676793301009</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.1716558076052149</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.2397011007841714</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.2958215319637055</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.3337315480679256</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.3529580663505187</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.3581276547436303</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.3581276547436303</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.3603749889521464</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.3699636988020907</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.3920725590592659</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.4312606341951506</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.4894147144351776</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.5657957785694658</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.6481534238563855</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.7232612049521623</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.779083585346544</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.8106274513097884</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.8226721443111201</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.822822520003634</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.8257358309201741</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.8385518161462751</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.8584465401587938</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.8790934738076736</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.9008642120950079</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.9238184754753009</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.9475318544643804</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.9704246821519074</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.9877801337892126</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>0.01774308864387086</v>
       </c>
       <c r="CE5">
-        <v>1</v>
+        <v>0.036444552447475</v>
       </c>
       <c r="CF5">
-        <v>1</v>
+        <v>0.1166524640172449</v>
       </c>
       <c r="CG5">
-        <v>1</v>
+        <v>0.1887586176137029</v>
       </c>
       <c r="CH5">
-        <v>1</v>
+        <v>0.1908714495021848</v>
       </c>
       <c r="CI5">
-        <v>1</v>
+        <v>0.1908740274300042</v>
       </c>
       <c r="CJ5">
-        <v>1</v>
+        <v>0.2778707091298371</v>
       </c>
       <c r="CK5">
-        <v>1</v>
+        <v>0.2812163123943637</v>
       </c>
       <c r="CL5">
-        <v>1</v>
+        <v>0.2882672115078615</v>
       </c>
       <c r="CM5">
-        <v>1</v>
+        <v>0.3548130683651074</v>
       </c>
       <c r="CN5">
-        <v>1</v>
+        <v>0.4015446006924515</v>
       </c>
       <c r="CO5">
-        <v>1</v>
+        <v>0.4079056373401126</v>
       </c>
       <c r="CP5">
-        <v>1</v>
+        <v>0.4153802123096282</v>
       </c>
       <c r="CQ5">
-        <v>1</v>
+        <v>0.4408030551304024</v>
       </c>
       <c r="CR5">
-        <v>1</v>
+        <v>0.4500576731186305</v>
       </c>
       <c r="CS5">
-        <v>1</v>
+        <v>0.5145296095217371</v>
       </c>
       <c r="CT5">
-        <v>1</v>
+        <v>0.5686674929864884</v>
       </c>
       <c r="CU5">
-        <v>1</v>
+        <v>0.6767027486187559</v>
       </c>
       <c r="CV5">
-        <v>1</v>
+        <v>0.6993193601347598</v>
       </c>
       <c r="CW5">
-        <v>1</v>
+        <v>0.7091457766467295</v>
       </c>
       <c r="CX5">
-        <v>1</v>
+        <v>0.8173833385808118</v>
       </c>
       <c r="CY5">
-        <v>1</v>
+        <v>0.8414034029745456</v>
       </c>
       <c r="CZ5">
+        <v>0.8414034029745456</v>
+      </c>
+      <c r="DA5">
+        <v>0.8414034029745456</v>
+      </c>
+      <c r="DB5">
+        <v>0.849975620041265</v>
+      </c>
+      <c r="DC5">
+        <v>0.8795422763362007</v>
+      </c>
+      <c r="DD5">
+        <v>0.9104717720153478</v>
+      </c>
+      <c r="DE5">
+        <v>0.9144403794488627</v>
+      </c>
+      <c r="DF5">
+        <v>0.9331443714790514</v>
+      </c>
+      <c r="DG5">
+        <v>0.9892613861710404</v>
+      </c>
+      <c r="DH5">
+        <v>0.99937876822576</v>
+      </c>
+      <c r="DI5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:104">
+    <row r="6" spans="1:113">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4448,109 +4769,136 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.003276999009559169</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.008504210952206531</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.01755881904165683</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.05533415167357254</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.07249225922577943</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.1135950021546579</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.1805253915073531</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.180696349962336</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.203758294628774</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.2136500511048457</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.2356192041640575</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.2660549321536739</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.2661531918982837</v>
+        <v>0.02500617875852623</v>
       </c>
       <c r="CE6">
-        <v>0.2963147087536626</v>
+        <v>0.03057867256743411</v>
       </c>
       <c r="CF6">
-        <v>0.3397846563660983</v>
+        <v>0.05283171130897715</v>
       </c>
       <c r="CG6">
-        <v>0.3849049351695519</v>
+        <v>0.07604579440295396</v>
       </c>
       <c r="CH6">
-        <v>0.4040117747129047</v>
+        <v>0.1088234721414543</v>
       </c>
       <c r="CI6">
-        <v>0.4288610613875149</v>
+        <v>0.1246629508178742</v>
       </c>
       <c r="CJ6">
-        <v>0.4289951020941191</v>
+        <v>0.2898946128575695</v>
       </c>
       <c r="CK6">
-        <v>0.4670221948562269</v>
+        <v>0.3122350193566643</v>
       </c>
       <c r="CL6">
-        <v>0.5507959726910334</v>
+        <v>0.3300113374569655</v>
       </c>
       <c r="CM6">
-        <v>0.6327691672101542</v>
+        <v>0.3461300187470487</v>
       </c>
       <c r="CN6">
-        <v>0.7481948291379842</v>
+        <v>0.3716424270411154</v>
       </c>
       <c r="CO6">
-        <v>0.798714884720488</v>
+        <v>0.3790072885428571</v>
       </c>
       <c r="CP6">
-        <v>0.8086816263183217</v>
+        <v>0.4184421691560701</v>
       </c>
       <c r="CQ6">
-        <v>0.8145740626004587</v>
+        <v>0.4526444043006779</v>
       </c>
       <c r="CR6">
-        <v>0.8633308829344623</v>
+        <v>0.4557275384480698</v>
       </c>
       <c r="CS6">
-        <v>0.9291118581012542</v>
+        <v>0.5365827067460605</v>
       </c>
       <c r="CT6">
-        <v>0.9569607344087779</v>
+        <v>0.5399839137404705</v>
       </c>
       <c r="CU6">
-        <v>0.9622137380023377</v>
+        <v>0.6207817854681555</v>
       </c>
       <c r="CV6">
-        <v>0.9701564758686214</v>
+        <v>0.6487716026151704</v>
       </c>
       <c r="CW6">
-        <v>1</v>
+        <v>0.6984531807089152</v>
       </c>
       <c r="CX6">
-        <v>1</v>
+        <v>0.8102514584910848</v>
       </c>
       <c r="CY6">
-        <v>1</v>
+        <v>0.8322646759595359</v>
       </c>
       <c r="CZ6">
-        <v>1</v>
+        <v>0.8346222430085003</v>
+      </c>
+      <c r="DA6">
+        <v>0.8390424340264029</v>
+      </c>
+      <c r="DB6">
+        <v>0.8617427955297092</v>
+      </c>
+      <c r="DC6">
+        <v>0.9243362834205535</v>
+      </c>
+      <c r="DD6">
+        <v>0.9282931979140621</v>
+      </c>
+      <c r="DE6">
+        <v>0.9353526924666794</v>
+      </c>
+      <c r="DF6">
+        <v>0.9895737871757895</v>
+      </c>
+      <c r="DG6">
+        <v>0.996869975951054</v>
+      </c>
+      <c r="DH6">
+        <v>0.997218512466817</v>
+      </c>
+      <c r="DI6">
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -4568,302 +4916,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0.08574849780791581</v>
+        <v>0.1482564626872197</v>
       </c>
       <c r="F2">
-        <v>0.5430157221172954</v>
+        <v>0.5280111947063376</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L2">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>0.04961713825653478</v>
+        <v>0.1614757052173933</v>
       </c>
       <c r="F3">
-        <v>0.5305183555887975</v>
+        <v>0.5050968875095293</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L3">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E4">
-        <v>0.02633264240621081</v>
+        <v>0.1360506773768332</v>
       </c>
       <c r="F4">
-        <v>0.5371686331208394</v>
+        <v>0.5755998769463799</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L4">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>0.04150886509826633</v>
+        <v>0.1166524640172449</v>
       </c>
       <c r="F5">
-        <v>0.5657957785694658</v>
+        <v>0.5145296095217371</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L5">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
-      </c>
-      <c r="O5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>0.01755881904165683</v>
+        <v>0.1088234721414543</v>
       </c>
       <c r="F6">
-        <v>0.5507959726910334</v>
+        <v>0.5365827067460605</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L6">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4881,302 +5214,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>0.08574849780791581</v>
+        <v>0.1482564626872197</v>
       </c>
       <c r="F2">
-        <v>0.7687430241437624</v>
+        <v>0.8066152718047768</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L2">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.04961713825653478</v>
+        <v>0.1614757052173933</v>
       </c>
       <c r="F3">
-        <v>0.7229600199083471</v>
+        <v>0.7974975808406762</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L3">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E4">
-        <v>0.02633264240621081</v>
+        <v>0.1360506773768332</v>
       </c>
       <c r="F4">
-        <v>0.7139158042580711</v>
+        <v>0.7162269152089079</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L4">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.04150886509826633</v>
+        <v>0.1166524640172449</v>
       </c>
       <c r="F5">
-        <v>0.7232612049521623</v>
+        <v>0.7091457766467295</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L5">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
-      </c>
-      <c r="O5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.01755881904165683</v>
+        <v>0.1088234721414543</v>
       </c>
       <c r="F6">
-        <v>0.7481948291379842</v>
+        <v>0.8102514584910848</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L6">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5194,222 +5512,213 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0.08574849780791581</v>
+        <v>0.1482564626872197</v>
       </c>
       <c r="F2">
-        <v>0.8758847140138922</v>
+        <v>0.8066152718047768</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L2">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.04961713825653478</v>
+        <v>0.1614757052173933</v>
       </c>
       <c r="F3">
-        <v>0.8494813424516163</v>
+        <v>0.8154489429367362</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L3">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>0.02633264240621081</v>
+        <v>0.1360506773768332</v>
       </c>
       <c r="F4">
-        <v>0.8009522672945124</v>
+        <v>0.8245154920541118</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L4">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>0.04150886509826633</v>
+        <v>0.1166524640172449</v>
       </c>
       <c r="F5">
-        <v>0.8106274513097884</v>
+        <v>0.8173833385808118</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -5418,78 +5727,72 @@
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L5">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
-      </c>
-      <c r="O5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.01755881904165683</v>
+        <v>0.1088234721414543</v>
       </c>
       <c r="F6">
-        <v>0.8086816263183217</v>
+        <v>0.8102514584910848</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L6">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5507,302 +5810,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>0.08574849780791581</v>
+        <v>0.1482564626872197</v>
       </c>
       <c r="F2">
-        <v>0.9502174957584109</v>
+        <v>0.9507763369001262</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L2">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E3">
-        <v>0.04961713825653478</v>
+        <v>0.1614757052173933</v>
       </c>
       <c r="F3">
-        <v>0.9366719785263193</v>
+        <v>0.9706642213320642</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L3">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.02633264240621081</v>
+        <v>0.1360506773768332</v>
       </c>
       <c r="F4">
-        <v>0.9144155822137709</v>
+        <v>0.9191669411428965</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L4">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.04150886509826633</v>
+        <v>0.1166524640172449</v>
       </c>
       <c r="F5">
-        <v>0.9008642120950079</v>
+        <v>0.9104717720153478</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L5">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
-      </c>
-      <c r="O5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.01755881904165683</v>
+        <v>0.1088234721414543</v>
       </c>
       <c r="F6">
-        <v>0.9291118581012542</v>
+        <v>0.9243362834205535</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L6">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
